--- a/sylaby.xlsx
+++ b/sylaby.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\PRAKTYKI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\PRAKTYKI\Syntezator-mowy-praktyki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A4791-A978-4339-92C2-9EF3010DF2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20D86BA-4576-48B1-89ED-43C24514CF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9555" yWindow="4020" windowWidth="19335" windowHeight="15750" xr2:uid="{9A0BDF96-98D4-45A5-BC96-61EDE3A6D044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="15750" xr2:uid="{9A0BDF96-98D4-45A5-BC96-61EDE3A6D044}"/>
   </bookViews>
   <sheets>
     <sheet name="otwarte" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="251">
   <si>
     <t>a</t>
   </si>
@@ -402,9 +402,6 @@
     <t>wi</t>
   </si>
   <si>
-    <t>zi</t>
-  </si>
-  <si>
     <t>źi</t>
   </si>
   <si>
@@ -739,9 +736,6 @@
   </si>
   <si>
     <t>σę</t>
-  </si>
-  <si>
-    <t>∂i</t>
   </si>
   <si>
     <t>đi</t>
@@ -849,11 +843,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1171,7 +1166,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1199,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1240,20 +1235,20 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" t="s">
-        <v>129</v>
+      <c r="G3" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1274,13 +1269,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1303,16 +1298,16 @@
         <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1326,22 +1321,22 @@
       <c r="E6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1359,18 +1354,18 @@
         <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1388,18 +1383,18 @@
         <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1417,18 +1412,18 @@
         <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1446,21 +1441,21 @@
         <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
@@ -1473,18 +1468,18 @@
         <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1502,18 +1497,18 @@
         <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1531,18 +1526,18 @@
         <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1560,18 +1555,18 @@
         <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1587,18 +1582,18 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1616,45 +1611,45 @@
         <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1672,18 +1667,18 @@
         <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1701,18 +1696,18 @@
         <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1730,16 +1725,16 @@
         <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1757,18 +1752,18 @@
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1786,18 +1781,18 @@
         <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1811,22 +1806,20 @@
       <c r="E23" t="s">
         <v>103</v>
       </c>
-      <c r="F23" t="s">
-        <v>125</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1841,19 +1834,19 @@
         <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1868,21 +1861,21 @@
         <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1897,130 +1890,128 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" t="s">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" t="s">
         <v>221</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>222</v>
       </c>
-      <c r="C30" t="s">
-        <v>223</v>
-      </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2042,7 +2033,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
